--- a/2022/Symphony/Others/Emergency Format/DOA timeline over.xlsx
+++ b/2022/Symphony/Others/Emergency Format/DOA timeline over.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Symphony\Others\Emergency Format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Symphony\Others\Emergency Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
   <si>
     <t>Model</t>
   </si>
@@ -41,31 +41,127 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>D47_SKD</t>
-  </si>
-  <si>
-    <t>Display White</t>
-  </si>
-  <si>
-    <t>D54+_SKD</t>
-  </si>
-  <si>
-    <t>Display light problem</t>
-  </si>
-  <si>
-    <t>L135_SKD</t>
-  </si>
-  <si>
     <t>Display Problem</t>
   </si>
   <si>
-    <t>L270_SKD</t>
-  </si>
-  <si>
     <t>Phone Off</t>
   </si>
   <si>
     <t>SL No.</t>
+  </si>
+  <si>
+    <t>B62</t>
+  </si>
+  <si>
+    <t>11.05.2022</t>
+  </si>
+  <si>
+    <t>97 days</t>
+  </si>
+  <si>
+    <t>L270</t>
+  </si>
+  <si>
+    <t>Kepad Problem</t>
+  </si>
+  <si>
+    <t>76 days</t>
+  </si>
+  <si>
+    <t>BL120</t>
+  </si>
+  <si>
+    <t>Battery Problem</t>
+  </si>
+  <si>
+    <t>73 days</t>
+  </si>
+  <si>
+    <t>Speaker Problem</t>
+  </si>
+  <si>
+    <t>72 days</t>
+  </si>
+  <si>
+    <t>D47</t>
+  </si>
+  <si>
+    <t>D54+</t>
+  </si>
+  <si>
+    <t>Button Problem</t>
+  </si>
+  <si>
+    <t>358 days</t>
+  </si>
+  <si>
+    <t>S45</t>
+  </si>
+  <si>
+    <t>Backpart Problem</t>
+  </si>
+  <si>
+    <t>230 days</t>
+  </si>
+  <si>
+    <t>L135</t>
+  </si>
+  <si>
+    <t>Display &amp; Button Problem</t>
+  </si>
+  <si>
+    <t>196 days</t>
+  </si>
+  <si>
+    <t>L46</t>
+  </si>
+  <si>
+    <t>164 days</t>
+  </si>
+  <si>
+    <t>156 days</t>
+  </si>
+  <si>
+    <t>147 days</t>
+  </si>
+  <si>
+    <t>B69</t>
+  </si>
+  <si>
+    <t>141 days</t>
+  </si>
+  <si>
+    <t>139 days</t>
+  </si>
+  <si>
+    <t>L140</t>
+  </si>
+  <si>
+    <t>111 days</t>
+  </si>
+  <si>
+    <t>105 days</t>
+  </si>
+  <si>
+    <t>L33</t>
+  </si>
+  <si>
+    <t>104 days</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>101 days</t>
+  </si>
+  <si>
+    <t>100 days</t>
+  </si>
+  <si>
+    <t>12.05.2022</t>
+  </si>
+  <si>
+    <t>Sending date</t>
   </si>
 </sst>
 </file>
@@ -103,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -126,21 +222,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G13"/>
+  <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,119 +704,568 @@
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>354473221691208</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>351805995381263</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>357559444453389</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>350954042797682</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>357559442910703</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>357559442833046</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
         <v>6</v>
       </c>
-      <c r="F4" s="2">
-        <v>69</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2">
+        <v>350954044918526</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
         <v>7</v>
       </c>
-      <c r="D5" s="4">
-        <v>356035116877867</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>356035116341120</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
         <v>8</v>
       </c>
-      <c r="F5" s="2">
-        <v>73</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2">
+        <v>354430151045805</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
-        <v>355482206922909</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2">
+        <v>355482202952207</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
         <v>10</v>
       </c>
-      <c r="F6" s="2">
-        <v>84</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2">
+        <v>357398296486183</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
         <v>11</v>
       </c>
-      <c r="D7" s="4">
-        <v>351805994149406</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <v>357398295306960</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
         <v>12</v>
       </c>
-      <c r="F7" s="2">
-        <v>105</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <v>357559442554386</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="14">
+        <v>357398297252188</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7">
+        <v>355645525352202</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2">
+        <v>355645525337245</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2">
+        <v>357398297093509</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2">
+        <v>357398297071406</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2">
+        <v>351251783072162</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2">
+        <v>357559443857408</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="2">
+        <v>359946903194265</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2">
+        <v>350954045117763</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="2">
+        <v>357599105302087</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2">
+        <v>355482207005167</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2">
+        <v>351251783121548</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="12">
+        <v>25</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="14">
+        <v>351805994743026</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H4:H16"/>
+    <mergeCell ref="H17:H28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
